--- a/poi/src/test/resources/poi-test.xlsx
+++ b/poi/src/test/resources/poi-test.xlsx
@@ -16,21 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Datum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Text</t>
   </si>
   <si>
     <t>Yellow submarine</t>
+  </si>
+  <si>
+    <t>Datum med explicit formatting</t>
+  </si>
+  <si>
+    <t>Datum med implicit formatting</t>
+  </si>
+  <si>
+    <t>Now med explicit formatting</t>
+  </si>
+  <si>
+    <t>Now med custom formatting</t>
+  </si>
+  <si>
+    <t>Tidpunkt med implicit formatting</t>
+  </si>
+  <si>
+    <t>Tidpunkt med explicit formatting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd&quot;T&quot;hh:mm:ss&quot;+02:00&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -60,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,36 +380,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>41388</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>41388</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41388.424305555556</v>
+      </c>
+      <c r="D2" s="4">
+        <v>41388.424560185187</v>
+      </c>
+      <c r="E2" s="3">
+        <f ca="1">NOW()</f>
+        <v>41606.830099768522</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">NOW()</f>
+        <v>41606.830099768522</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
